--- a/dataFolder/testData.xlsx
+++ b/dataFolder/testData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,26 +511,21 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>blueTotalGold</t>
+          <t>goldDiff</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>redTotalGold</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>gameLength</t>
+          <t>killDif</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -539,46 +534,43 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>10345</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8756260720411664</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1811</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -589,34 +581,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -625,16 +617,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>11290</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8722218632898308</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1862</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -648,28 +637,28 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -681,16 +670,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>-1560</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8630075644900767</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1893</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -701,22 +687,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -725,28 +711,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9279498995048777</v>
+        <v>-4860</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2359</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="6">
@@ -754,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -763,28 +746,28 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -796,13 +779,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>-1200</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7769180843068935</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1631</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -810,34 +790,34 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -846,19 +826,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>9230</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9468814882484844</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1876</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -872,22 +849,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -896,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -905,16 +882,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>5340</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7498093229844318</v>
-      </c>
-      <c r="R8" t="n">
-        <v>908</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -931,102 +905,96 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2550</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9674231480606446</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2294</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8858917217633764</v>
+        <v>3450</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>768</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1034,111 +1002,105 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>7890</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9338042325087944</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1198</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.8497154364766658</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1662</v>
       </c>
     </row>
     <row r="13">
@@ -1146,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1158,26 +1120,26 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
@@ -1185,72 +1147,66 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>4240</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9488811728395061</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>-6620</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9340647912225053</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1258,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1270,22 +1226,22 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1297,57 +1253,54 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>9695</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7956135785334258</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1832</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1356,18 +1309,15 @@
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9442932859412106</v>
+        <v>-2698</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1976</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1376,34 +1326,34 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1412,42 +1362,39 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>-6140</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8884578517056667</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2520</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1456,25 +1403,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5901315789473685</v>
+        <v>-8575</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1482,22 +1426,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1509,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -1521,39 +1465,36 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7108433734939759</v>
+        <v>-235</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1416</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1568,25 +1509,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>-13925</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8188322051620714</v>
-      </c>
-      <c r="R20" t="n">
-        <v>661</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="21">
@@ -1594,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1612,37 +1550,34 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>11</v>
-      </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8083708462625468</v>
+        <v>-9040</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1862</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="22">
@@ -1650,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1662,25 +1597,25 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1689,72 +1624,66 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>-6680</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7103488001940306</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1058</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7735952656945885</v>
+        <v>778</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1500</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1762,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1789,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1801,16 +1730,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8894352921891648</v>
+        <v>-7125</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1225</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="25">
@@ -1818,25 +1744,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1848,122 +1774,116 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8894193966915342</v>
+        <v>-4000</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2190</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7493540051679587</v>
+        <v>13410</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1604</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -1972,13 +1892,10 @@
         <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>-3033</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9548129865198405</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2021</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="28">
@@ -1992,131 +1909,125 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>6235</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.8202360682231393</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1909</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>9</v>
       </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3</v>
-      </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>-10360</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7016681270892156</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1649</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2125,28 +2036,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>-11355</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8024203857844947</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1045</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="31">
@@ -2157,57 +2065,54 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>3095</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.878794069577399</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -2216,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -2228,37 +2133,34 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>-1950</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8561086573904958</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1686</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="33">
@@ -2269,57 +2171,54 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>17070</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8429864693857685</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1781</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -2328,105 +2227,99 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>-11525</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7921790755437087</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1776</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8467905225391638</v>
+        <v>3465</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1063</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2437,22 +2330,22 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2464,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2473,16 +2366,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>11575</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8718668905510609</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1221</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -2493,52 +2383,49 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>0.9488447325855108</v>
+        <v>-6545</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1651</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="38">
@@ -2546,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -2558,22 +2445,22 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -2585,42 +2472,39 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>10523</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8408488063660478</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1239</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2632,25 +2516,22 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2260</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6679915888809108</v>
-      </c>
-      <c r="R39" t="n">
-        <v>704</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="40">
@@ -2658,25 +2539,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2700,13 +2581,10 @@
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7640201251687324</v>
+        <v>-4835</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>775</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="41">
@@ -2723,28 +2601,28 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2753,16 +2631,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>11378</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6697274134888913</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1411</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -2770,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2800,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -2809,16 +2684,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7391860007864727</v>
+        <v>-3155</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>892</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="43">
@@ -2826,34 +2698,34 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2868,13 +2740,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>7481</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7765086941697921</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1041</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2882,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -2891,28 +2760,28 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2921,42 +2790,39 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>8125</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.757061257887366</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1089</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2965,66 +2831,63 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8168804328004377</v>
+        <v>9010</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3033,57 +2896,54 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>-2540</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7857444889214636</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1262</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -3092,13 +2952,10 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>0.861366974618035</v>
+        <v>4375</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1416</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -3106,22 +2963,22 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3133,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3145,16 +3002,13 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>0.9198286937901499</v>
+        <v>-5825</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>834</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="49">
@@ -3162,37 +3016,37 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3204,13 +3058,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>9775</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.682894245692619</v>
-      </c>
-      <c r="R49" t="n">
-        <v>901</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -3218,25 +3069,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3248,25 +3099,22 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7457479973166016</v>
+        <v>35</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>993</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51">
@@ -3274,25 +3122,25 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3301,28 +3149,25 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7973589321107052</v>
+        <v>-6025</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>733</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="52">
@@ -3330,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -3339,46 +3184,43 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>10965</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.8956135775793249</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1758</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -3386,25 +3228,25 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3413,28 +3255,25 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8360449192002192</v>
+        <v>2700</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1003</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="54">
@@ -3442,40 +3281,40 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3484,42 +3323,39 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>3335</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7846365983100578</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1785</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3528,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3537,16 +3373,13 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.9238428213118492</v>
+        <v>-350</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1250</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -3554,93 +3387,90 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0.7875526529350388</v>
+        <v>3800</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1363</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3649,128 +3479,119 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8700210624853733</v>
+        <v>5960</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1209</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>-1160</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.9827152628755365</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1797</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
         <v>6</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5</v>
-      </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>0.9415414047553976</v>
+        <v>-7180</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -3778,55 +3599,52 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8322673409688135</v>
+        <v>-680</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1699</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="61">
@@ -3834,25 +3652,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3864,51 +3682,48 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8317317876331144</v>
+        <v>-3225</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1571</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3917,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3932,13 +3747,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>-2125</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8497631633143407</v>
-      </c>
-      <c r="R62" t="n">
-        <v>922</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="63">
@@ -3946,34 +3758,34 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3985,101 +3797,95 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>5020</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7794740361043013</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1320</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
         <v>10</v>
       </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>-8525</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7765836816897118</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1640</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4088,25 +3894,22 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>-5075</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.8526211870894951</v>
-      </c>
-      <c r="R65" t="n">
-        <v>801</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="66">
@@ -4114,34 +3917,34 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -4156,69 +3959,63 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>2480</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.9188788281467288</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1093</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>-9455</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.9137130613338095</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1091</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="68">
@@ -4226,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -4235,25 +4032,25 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>10</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
@@ -4268,42 +4065,39 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>7610</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.8398454662525566</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1845</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4312,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4321,72 +4115,66 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.7962929759289973</v>
+        <v>-275</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0.7624997102524281</v>
+        <v>-3645</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1279</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -4394,55 +4182,52 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>-4150</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.9534254722591974</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4450,40 +4235,40 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4492,54 +4277,51 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>-9740</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.9031467452781682</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1695</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4548,13 +4330,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7014749479809232</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1326</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="74">
@@ -4562,37 +4341,37 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4601,45 +4380,42 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>-8400</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.8530206661112353</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1443</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4648,81 +4424,75 @@
         <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0.9491359724612737</v>
+        <v>3520</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2281</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>3</v>
       </c>
       <c r="P76" t="n">
-        <v>0.9675784099197666</v>
+        <v>-6440</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2499</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="77">
@@ -4730,55 +4500,52 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
         <v>7</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2</v>
-      </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
         <v>4</v>
       </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2</v>
-      </c>
-      <c r="O77" t="n">
-        <v>2</v>
-      </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.9501953451096938</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1830</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -4786,72 +4553,69 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0.9718674357521759</v>
+        <v>1175</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2279</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -4860,72 +4624,69 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0.8077964266377911</v>
+        <v>9950</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1898</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
         <v>7</v>
@@ -4934,19 +4695,16 @@
         <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>0.7330533105814847</v>
+        <v>3075</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1413</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -4960,49 +4718,46 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>0.8876144623808175</v>
+        <v>3825</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1211</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -5010,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -5019,28 +4774,28 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5049,16 +4804,13 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>3640</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.8479404826710216</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1604</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -5075,25 +4827,25 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -5105,101 +4857,95 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>5385</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8618934779497129</v>
-      </c>
-      <c r="R83" t="n">
-        <v>974</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
-        <v>0.8213940069024707</v>
+        <v>7015</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1593</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -5208,54 +4954,51 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>-2570</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.913586997042523</v>
-      </c>
-      <c r="R85" t="n">
-        <v>1136</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -5264,66 +5007,63 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0.7417984218284822</v>
+        <v>8095</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
-      </c>
-      <c r="R86" t="n">
-        <v>954</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5332,166 +5072,157 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>3500</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.872005218951317</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1824</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>4</v>
       </c>
-      <c r="L88" t="n">
-        <v>7</v>
-      </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>4503</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.9147216081435402</v>
-      </c>
-      <c r="R88" t="n">
-        <v>2197</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>-6720</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.9870618818537664</v>
-      </c>
-      <c r="R89" t="n">
-        <v>2072</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5500,13 +5231,10 @@
         <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>-10740</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.8719833416387841</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1692</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="91">
@@ -5514,28 +5242,28 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5547,45 +5275,42 @@
         <v>6</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>-9280</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.9735342958623553</v>
-      </c>
-      <c r="R91" t="n">
-        <v>2862</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5597,33 +5322,30 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>0.6287656334964655</v>
+        <v>900</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1087</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -5635,102 +5357,96 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
-        <v>0.8869601123131555</v>
+        <v>5640</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1713</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
         <v>2</v>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>-11500</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.8677481172263112</v>
-      </c>
-      <c r="R94" t="n">
-        <v>2374</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="95">
@@ -5741,31 +5457,31 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
         <v>3</v>
@@ -5777,16 +5493,13 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>6965</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.8014716560972067</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1765</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -5803,10 +5516,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5815,16 +5528,16 @@
         <v>11</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -5833,16 +5546,13 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96" t="n">
-        <v>1</v>
+        <v>6745</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.8618491398562592</v>
-      </c>
-      <c r="R96" t="n">
-        <v>2125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -5850,78 +5560,75 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
         <v>6</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P97" t="n">
-        <v>0.9871171033001966</v>
+        <v>-2870</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
-      </c>
-      <c r="R97" t="n">
-        <v>2287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5933,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -5945,16 +5652,13 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>-4080</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.8904435629282366</v>
-      </c>
-      <c r="R98" t="n">
-        <v>923</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="99">
@@ -5962,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -5971,28 +5675,28 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -6001,72 +5705,66 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>13360</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.8907266044670625</v>
-      </c>
-      <c r="R99" t="n">
-        <v>2067</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
-        <v>0.8092931467527807</v>
+        <v>-5770</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
-      </c>
-      <c r="R100" t="n">
-        <v>1595</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="101">
@@ -6074,55 +5772,52 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>-7575</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="R101" t="n">
-        <v>1767</v>
+        <v>-23</v>
       </c>
     </row>
   </sheetData>

--- a/dataFolder/testData.xlsx
+++ b/dataFolder/testData.xlsx
@@ -522,10 +522,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -534,160 +534,160 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>10345</v>
+        <v>15132</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>11290</v>
+        <v>-13467</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
         <v>11</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>-1560</v>
+        <v>-12430</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -696,13 +696,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -711,25 +711,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-4860</v>
+        <v>6065</v>
       </c>
       <c r="Q5" t="n">
-        <v>-18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -749,25 +749,25 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-1200</v>
+        <v>11869</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -808,19 +808,19 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>9230</v>
+        <v>3831</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -846,31 +846,31 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -882,119 +882,119 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>5340</v>
+        <v>9692</v>
       </c>
       <c r="Q8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>2550</v>
+        <v>-11304</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3450</v>
+        <v>-3731</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11">
@@ -1002,38 +1002,38 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
         <v>5</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1044,48 +1044,48 @@
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>7890</v>
+        <v>8968</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-2963</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -1108,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1120,22 +1120,22 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>4240</v>
+        <v>8035</v>
       </c>
       <c r="Q13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1173,13 +1173,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1188,83 +1188,83 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>-6620</v>
+        <v>-7175</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>9695</v>
+        <v>-12195</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1282,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1297,27 +1297,27 @@
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>-2698</v>
+        <v>-5330</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1332,13 +1332,13 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1347,36 +1347,36 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-6140</v>
+        <v>10666</v>
       </c>
       <c r="Q17" t="n">
-        <v>-22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -1385,45 +1385,45 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>-8575</v>
+        <v>-4211</v>
       </c>
       <c r="Q18" t="n">
-        <v>28</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -1444,140 +1444,140 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>-235</v>
+        <v>8089</v>
       </c>
       <c r="Q19" t="n">
-        <v>-3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8248</v>
+      </c>
+      <c r="Q20" t="n">
         <v>11</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-13925</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-9040</v>
+        <v>9663</v>
       </c>
       <c r="Q21" t="n">
-        <v>-12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1624,74 +1624,74 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>-6680</v>
+        <v>4584</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>778</v>
+        <v>8764</v>
       </c>
       <c r="Q23" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1718,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-7125</v>
+        <v>1393</v>
       </c>
       <c r="Q24" t="n">
-        <v>-13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1747,10 +1747,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -1762,34 +1762,34 @@
         <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-4000</v>
+        <v>3049</v>
       </c>
       <c r="Q25" t="n">
-        <v>-8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1815,19 +1815,19 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1839,130 +1839,130 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>13410</v>
+        <v>14932</v>
       </c>
       <c r="Q26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>-3033</v>
+        <v>9083</v>
       </c>
       <c r="Q27" t="n">
-        <v>-18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>6235</v>
+        <v>-11020</v>
       </c>
       <c r="Q28" t="n">
-        <v>20</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1974,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1986,27 +1986,27 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-10360</v>
+        <v>3137</v>
       </c>
       <c r="Q29" t="n">
-        <v>-25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -2015,46 +2015,46 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7998</v>
+      </c>
+      <c r="Q30" t="n">
         <v>10</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>-11355</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-23</v>
       </c>
     </row>
     <row r="31">
@@ -2065,34 +2065,34 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2101,66 +2101,66 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>3095</v>
+        <v>7958</v>
       </c>
       <c r="Q31" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>-1950</v>
+        <v>7251</v>
       </c>
       <c r="Q32" t="n">
-        <v>-22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -2180,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2207,18 +2207,18 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>17070</v>
+        <v>7911</v>
       </c>
       <c r="Q33" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -2230,43 +2230,43 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>-11525</v>
+        <v>8566</v>
       </c>
       <c r="Q34" t="n">
-        <v>-6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2286,13 +2286,13 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2313,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3465</v>
+        <v>5185</v>
       </c>
       <c r="Q35" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2327,19 +2327,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>11575</v>
+        <v>8533</v>
       </c>
       <c r="Q36" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2392,13 +2392,13 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2407,25 +2407,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>-6545</v>
+        <v>-5879</v>
       </c>
       <c r="Q37" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2433,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>11</v>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -2475,24 +2475,24 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>10523</v>
+        <v>13061</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -2504,10 +2504,10 @@
         <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2516,22 +2516,22 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>2260</v>
+        <v>3198</v>
       </c>
       <c r="Q39" t="n">
-        <v>-25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>-4835</v>
+        <v>-11416</v>
       </c>
       <c r="Q40" t="n">
-        <v>-7</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="41">
@@ -2598,34 +2598,34 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>11378</v>
+        <v>6492</v>
       </c>
       <c r="Q41" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2675,33 +2675,33 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-3155</v>
+        <v>-2987</v>
       </c>
       <c r="Q42" t="n">
-        <v>-22</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -2710,45 +2710,45 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>11</v>
+      </c>
+      <c r="M43" t="n">
         <v>3</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>7481</v>
+        <v>-19162</v>
       </c>
       <c r="Q43" t="n">
-        <v>19</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
@@ -2757,46 +2757,46 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>8125</v>
+        <v>-8582</v>
       </c>
       <c r="Q44" t="n">
-        <v>23</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="45">
@@ -2810,31 +2810,31 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2843,18 +2843,18 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>9010</v>
+        <v>3445</v>
       </c>
       <c r="Q45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -2872,19 +2872,19 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>3</v>
@@ -2899,24 +2899,24 @@
         <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>-2540</v>
+        <v>3804</v>
       </c>
       <c r="Q46" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -2928,34 +2928,34 @@
         <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>4375</v>
+        <v>-9250</v>
       </c>
       <c r="Q47" t="n">
-        <v>20</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="48">
@@ -2981,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3002,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>-5825</v>
+        <v>-6604</v>
       </c>
       <c r="Q48" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="49">
@@ -3016,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -3028,22 +3028,22 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -3055,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>9775</v>
+        <v>14137</v>
       </c>
       <c r="Q49" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -3084,42 +3084,42 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>35</v>
+        <v>-3542</v>
       </c>
       <c r="Q50" t="n">
-        <v>-3</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -3131,57 +3131,57 @@
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>-6025</v>
+        <v>9891</v>
       </c>
       <c r="Q51" t="n">
-        <v>-16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -3193,10 +3193,10 @@
         <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3205,22 +3205,22 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>10965</v>
+        <v>-19313</v>
       </c>
       <c r="Q52" t="n">
-        <v>42</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="53">
@@ -3231,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -3246,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3255,25 +3255,25 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P53" t="n">
-        <v>2700</v>
+        <v>-14856</v>
       </c>
       <c r="Q53" t="n">
-        <v>-3</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="54">
@@ -3281,13 +3281,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -3299,10 +3299,10 @@
         <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3311,116 +3311,116 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>3335</v>
+        <v>3292</v>
       </c>
       <c r="Q54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>-350</v>
+        <v>-13154</v>
       </c>
       <c r="Q55" t="n">
-        <v>7</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3429,15 +3429,15 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>3800</v>
+        <v>19108</v>
       </c>
       <c r="Q56" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
@@ -3458,10 +3458,10 @@
         <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3470,36 +3470,36 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>5960</v>
+        <v>-8626</v>
       </c>
       <c r="Q57" t="n">
-        <v>18</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -3511,19 +3511,19 @@
         <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>-1160</v>
+        <v>8394</v>
       </c>
       <c r="Q58" t="n">
-        <v>-6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -3546,10 +3546,10 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -3558,40 +3558,40 @@
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>-7180</v>
+        <v>15439</v>
       </c>
       <c r="Q59" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -3599,16 +3599,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
@@ -3617,75 +3617,75 @@
         <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>-680</v>
+        <v>-12050</v>
       </c>
       <c r="Q60" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3694,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>-3225</v>
+        <v>15201</v>
       </c>
       <c r="Q61" t="n">
-        <v>-11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -3708,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>2</v>
@@ -3717,13 +3717,13 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3732,39 +3732,39 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>-2125</v>
+        <v>-10099</v>
       </c>
       <c r="Q62" t="n">
-        <v>-7</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -3776,10 +3776,10 @@
         <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3797,27 +3797,27 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>5020</v>
+        <v>-3744</v>
       </c>
       <c r="Q63" t="n">
-        <v>17</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -3826,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3841,22 +3841,22 @@
         <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>-8525</v>
+        <v>16141</v>
       </c>
       <c r="Q64" t="n">
-        <v>-16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -3867,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>2</v>
@@ -3879,10 +3879,10 @@
         <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>-5075</v>
+        <v>-12886</v>
       </c>
       <c r="Q65" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="66">
@@ -3932,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3944,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3959,24 +3959,24 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2480</v>
+        <v>11896</v>
       </c>
       <c r="Q66" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -3988,34 +3988,34 @@
         <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>-9455</v>
+        <v>17003</v>
       </c>
       <c r="Q67" t="n">
-        <v>-4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -4023,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -4041,19 +4041,19 @@
         <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4065,24 +4065,24 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>7610</v>
+        <v>13970</v>
       </c>
       <c r="Q68" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -4094,10 +4094,10 @@
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>-275</v>
+        <v>-8486</v>
       </c>
       <c r="Q69" t="n">
-        <v>9</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="70">
@@ -4141,45 +4141,45 @@
         <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
       </c>
       <c r="H70" t="n">
+        <v>9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
         <v>4</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>-3645</v>
+        <v>9807</v>
       </c>
       <c r="Q70" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
@@ -4200,34 +4200,34 @@
         <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>-4150</v>
+        <v>-8979</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="72">
@@ -4235,40 +4235,40 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
       </c>
       <c r="H72" t="n">
+        <v>11</v>
+      </c>
+      <c r="I72" t="n">
         <v>4</v>
       </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>-9740</v>
+        <v>13432</v>
       </c>
       <c r="Q72" t="n">
-        <v>-3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
@@ -4288,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -4318,75 +4318,75 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>190</v>
+        <v>-3006</v>
       </c>
       <c r="Q73" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
       </c>
       <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
         <v>4</v>
       </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>-8400</v>
+        <v>-10995</v>
       </c>
       <c r="Q74" t="n">
-        <v>-4</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="75">
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -4406,22 +4406,22 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>3520</v>
+        <v>8269</v>
       </c>
       <c r="Q75" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -4450,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>2</v>
@@ -4477,22 +4477,22 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>-6440</v>
+        <v>-4740</v>
       </c>
       <c r="Q76" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="77">
@@ -4500,13 +4500,13 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -4518,34 +4518,34 @@
         <v>2</v>
       </c>
       <c r="H77" t="n">
+        <v>4</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>7647</v>
+      </c>
+      <c r="Q77" t="n">
         <v>8</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2</v>
-      </c>
-      <c r="L77" t="n">
-        <v>7</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1</v>
-      </c>
-      <c r="O77" t="n">
-        <v>4</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -4556,16 +4556,16 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4574,16 +4574,16 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4595,51 +4595,51 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1175</v>
+        <v>3722</v>
       </c>
       <c r="Q78" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>9950</v>
+        <v>-1406</v>
       </c>
       <c r="Q79" t="n">
-        <v>21</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="80">
@@ -4662,49 +4662,49 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>3075</v>
+        <v>6216</v>
       </c>
       <c r="Q80" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -4712,40 +4712,40 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
         <v>3</v>
       </c>
-      <c r="L81" t="n">
-        <v>8</v>
-      </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4754,10 +4754,10 @@
         <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>3825</v>
+        <v>-5554</v>
       </c>
       <c r="Q81" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="82">
@@ -4765,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -4777,37 +4777,37 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>3640</v>
+        <v>1031</v>
       </c>
       <c r="Q82" t="n">
         <v>12</v>
@@ -4815,13 +4815,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -4833,90 +4833,90 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>4</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1</v>
-      </c>
       <c r="P83" t="n">
-        <v>5385</v>
+        <v>-4278</v>
       </c>
       <c r="Q83" t="n">
-        <v>9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>4</v>
       </c>
-      <c r="L84" t="n">
-        <v>10</v>
-      </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>7015</v>
+        <v>-5123</v>
       </c>
       <c r="Q84" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="85">
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
         <v>2</v>
@@ -4942,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -4963,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>-2570</v>
+        <v>-3034</v>
       </c>
       <c r="Q85" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="86">
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5019,10 +5019,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>8095</v>
+        <v>6648</v>
       </c>
       <c r="Q86" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
         <v>2</v>
@@ -5042,13 +5042,13 @@
         <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -5057,25 +5057,25 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P87" t="n">
-        <v>3500</v>
+        <v>-10149</v>
       </c>
       <c r="Q87" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="88">
@@ -5086,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
@@ -5098,10 +5098,10 @@
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -5113,22 +5113,22 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P88" t="n">
-        <v>4503</v>
+        <v>-8738</v>
       </c>
       <c r="Q88" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="89">
@@ -5136,52 +5136,52 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4377</v>
+      </c>
+      <c r="Q89" t="n">
         <v>9</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>2</v>
-      </c>
-      <c r="O89" t="n">
-        <v>4</v>
-      </c>
-      <c r="P89" t="n">
-        <v>-6720</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="90">
@@ -5198,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
@@ -5207,34 +5207,34 @@
         <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P90" t="n">
-        <v>-10740</v>
+        <v>-7046</v>
       </c>
       <c r="Q90" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="91">
@@ -5242,52 +5242,52 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-9280</v>
+        <v>13201</v>
       </c>
       <c r="Q91" t="n">
-        <v>-8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -5295,34 +5295,34 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>900</v>
+        <v>7315</v>
       </c>
       <c r="Q92" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -5357,28 +5357,28 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -5387,24 +5387,24 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>5640</v>
+        <v>5250</v>
       </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -5416,37 +5416,37 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>-11500</v>
+        <v>5799</v>
       </c>
       <c r="Q94" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
@@ -5472,48 +5472,48 @@
         <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>6965</v>
+        <v>2652</v>
       </c>
       <c r="Q95" t="n">
-        <v>12</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -5522,37 +5522,37 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>6745</v>
+        <v>-4279</v>
       </c>
       <c r="Q96" t="n">
-        <v>19</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="97">
@@ -5569,28 +5569,28 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -5599,27 +5599,27 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>-2870</v>
+        <v>92</v>
       </c>
       <c r="Q97" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -5631,16 +5631,16 @@
         <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -5652,66 +5652,66 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>-4080</v>
+        <v>10571</v>
       </c>
       <c r="Q98" t="n">
-        <v>-12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>3</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
       <c r="P99" t="n">
-        <v>13360</v>
+        <v>-9089</v>
       </c>
       <c r="Q99" t="n">
-        <v>22</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="100">
@@ -5719,52 +5719,52 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
       </c>
       <c r="H100" t="n">
+        <v>8</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
         <v>7</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>4</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3289</v>
+      </c>
+      <c r="Q100" t="n">
         <v>6</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>2</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" t="n">
-        <v>-5770</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="101">
@@ -5781,43 +5781,43 @@
         <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L101" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>-7575</v>
+        <v>5651</v>
       </c>
       <c r="Q101" t="n">
-        <v>-23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
